--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_E1.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_E1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25110" windowHeight="3000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -291,6 +291,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -742,7 +745,7 @@
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
@@ -840,6 +843,7 @@
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1">
       <c r="A7" s="6"/>
+      <c r="B7" s="24"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="12.75" customHeight="1">

--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_E1.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_E1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18345" windowHeight="2550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -244,6 +244,9 @@
     <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -291,9 +294,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -318,15 +318,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>254736</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>87797</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>267879</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>96797</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -377,15 +377,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1026309</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>115391</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -427,15 +427,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>23915</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>99450</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>606119</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>99450</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>767443</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>103415</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -443,9 +443,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="23915" y="261375"/>
-          <a:ext cx="2877729" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="304800" y="424543"/>
+          <a:ext cx="3075214" cy="5443"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -742,405 +742,393 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="D28" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A1" s="12">
+    <row r="1" spans="1:13" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="2" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B2" s="13">
         <v>1234567890</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="16" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="8" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="18" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="10" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="12.75" customHeight="1">
-      <c r="B6" s="3">
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="C7" s="3">
         <v>999999999</v>
       </c>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="24"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1">
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" ht="12.75" customHeight="1">
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" ht="12.75" customHeight="1">
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" ht="12.75" customHeight="1">
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" ht="12.75" customHeight="1">
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" ht="12.75" customHeight="1">
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" ht="12.75" customHeight="1">
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" ht="12.75" customHeight="1">
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" ht="12.75" customHeight="1">
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" ht="12.75" customHeight="1">
-      <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="2:12" ht="12.75" customHeight="1">
-      <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="2:12" ht="12.75" customHeight="1">
-      <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="2:12" ht="12.75" customHeight="1">
-      <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="2:12" ht="12.75" customHeight="1">
-      <c r="L36" s="1"/>
-    </row>
-    <row r="37" spans="2:12" ht="12.75" customHeight="1">
-      <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="2:12" ht="12.75" customHeight="1">
-      <c r="L38" s="1"/>
-    </row>
-    <row r="39" spans="2:12" ht="12.75" customHeight="1">
-      <c r="L39" s="1"/>
-    </row>
-    <row r="40" spans="2:12" ht="12.75" customHeight="1">
-      <c r="L40" s="1"/>
-    </row>
-    <row r="41" spans="2:12" ht="15" customHeight="1">
-      <c r="L41" s="1"/>
-    </row>
-    <row r="42" spans="2:12" ht="12" customHeight="1">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="L42" s="1"/>
-    </row>
-    <row r="43" spans="2:12" ht="12" customHeight="1">
-      <c r="L43" s="1"/>
-    </row>
-    <row r="44" spans="2:12" ht="12" customHeight="1">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="L44" s="1"/>
-    </row>
-    <row r="45" spans="2:12" ht="12" customHeight="1">
-      <c r="L45" s="1"/>
-    </row>
-    <row r="46" spans="2:12" ht="12" customHeight="1">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="L46" s="1"/>
-    </row>
-    <row r="47" spans="2:12" ht="12" customHeight="1">
-      <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="2:12" ht="12" customHeight="1">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="L48" s="1"/>
-    </row>
-    <row r="49" spans="2:12" ht="12" customHeight="1">
-      <c r="L49" s="1"/>
-    </row>
-    <row r="50" spans="2:12" ht="12" customHeight="1">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="L50" s="1"/>
-    </row>
-    <row r="51" spans="2:12" ht="12" customHeight="1">
-      <c r="L51" s="1"/>
-    </row>
-    <row r="52" spans="2:12" ht="12" customHeight="1">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="L52" s="1"/>
-    </row>
-    <row r="53" spans="2:12" ht="12" customHeight="1">
-      <c r="L53" s="1"/>
-    </row>
-    <row r="54" spans="2:12" ht="12" customHeight="1">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="L54" s="1"/>
-    </row>
-    <row r="55" spans="2:12" ht="12" customHeight="1">
-      <c r="L55" s="1"/>
-    </row>
-    <row r="56" spans="2:12" ht="12" customHeight="1">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="L56" s="1"/>
-    </row>
-    <row r="57" spans="2:12" ht="12" customHeight="1">
-      <c r="L57" s="1"/>
-    </row>
-    <row r="58" spans="2:12" ht="12" customHeight="1">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="L58" s="1"/>
-    </row>
-    <row r="59" spans="2:12" ht="12" customHeight="1">
-      <c r="L59" s="1"/>
-    </row>
-    <row r="60" spans="2:12" ht="12" customHeight="1">
-      <c r="L60" s="1"/>
-    </row>
-    <row r="61" spans="2:12" ht="12" customHeight="1">
-      <c r="L61" s="1"/>
-    </row>
-    <row r="62" spans="2:12" ht="12" customHeight="1">
-      <c r="L62" s="1"/>
-    </row>
-    <row r="63" spans="2:12" ht="12" customHeight="1">
-      <c r="L63" s="1"/>
-    </row>
-    <row r="64" spans="2:12" ht="12" customHeight="1">
-      <c r="L64" s="1"/>
-    </row>
-    <row r="65" spans="1:12" ht="12" customHeight="1">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="L65" s="1"/>
-    </row>
-    <row r="66" spans="1:12" ht="12" customHeight="1">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="L66" s="1"/>
-    </row>
-    <row r="67" spans="1:12" ht="12" customHeight="1">
-      <c r="A67" s="6"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B8" s="6"/>
+      <c r="C8" s="8"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B9" s="6"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B10" s="6"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B11" s="6"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B12" s="6"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B13" s="6"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B14" s="6"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B15" s="6"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B16" s="6"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B17" s="6"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B18" s="6"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B19" s="6"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B20" s="6"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B21" s="6"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B22" s="6"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B23" s="6"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:13" customFormat="1" ht="15" customHeight="1">
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:13" customFormat="1" ht="12" customHeight="1">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:13" customFormat="1" ht="12" customHeight="1">
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" customFormat="1" ht="12" customHeight="1">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:13" customFormat="1" ht="12" customHeight="1">
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="1:13" customFormat="1" ht="12" customHeight="1">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="1:13" customFormat="1" ht="12" customHeight="1">
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="1:13" customFormat="1" ht="12" customHeight="1">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="1:13" customFormat="1" ht="12" customHeight="1">
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="1:13" customFormat="1" ht="12" customHeight="1">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="1:13" customFormat="1" ht="12" customHeight="1">
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="1:13" customFormat="1" ht="12" customHeight="1">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="1:13" customFormat="1" ht="12" customHeight="1">
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" spans="1:13" customFormat="1" ht="12" customHeight="1">
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="M55" s="1"/>
+    </row>
+    <row r="56" spans="1:13" customFormat="1" ht="12" customHeight="1">
+      <c r="M56" s="1"/>
+    </row>
+    <row r="57" spans="1:13" customFormat="1" ht="12" customHeight="1">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="M57" s="1"/>
+    </row>
+    <row r="58" spans="1:13" customFormat="1" ht="12" customHeight="1">
+      <c r="M58" s="1"/>
+    </row>
+    <row r="59" spans="1:13" customFormat="1" ht="12" customHeight="1">
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="M59" s="1"/>
+    </row>
+    <row r="60" spans="1:13" customFormat="1" ht="12" customHeight="1">
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" spans="1:13" customFormat="1" ht="12" customHeight="1">
+      <c r="M61" s="1"/>
+    </row>
+    <row r="62" spans="1:13" customFormat="1" ht="12" customHeight="1">
+      <c r="M62" s="1"/>
+    </row>
+    <row r="63" spans="1:13" customFormat="1" ht="12" customHeight="1">
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="1:13" customFormat="1" ht="12" customHeight="1">
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="1:13" customFormat="1" ht="12" customHeight="1">
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="1:13" customFormat="1" ht="12" customHeight="1">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="1:13" customFormat="1" ht="12" customHeight="1">
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -1150,10 +1138,10 @@
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
-      <c r="L67" s="1"/>
-    </row>
-    <row r="68" spans="1:12" ht="12" customHeight="1">
-      <c r="A68" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="1:13" customFormat="1" ht="12" customHeight="1">
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -1163,23 +1151,23 @@
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
-      <c r="L68" s="1"/>
-    </row>
-    <row r="69" spans="1:12" ht="12" customHeight="1">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="L69" s="1"/>
-    </row>
-    <row r="70" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A70" s="1"/>
+      <c r="K68" s="6"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="1:13" customFormat="1" ht="12" customHeight="1">
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="1:13" customFormat="1" ht="12" customHeight="1">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1190,17 +1178,31 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="F1:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_E1.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_E1.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18345" windowHeight="2550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24930" windowHeight="4935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:J6"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -427,25 +427,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>312420</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>97972</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>767443</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>103415</xdr:rowOff>
+      <xdr:rowOff>93636</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線コネクタ 18"/>
+        <xdr:cNvPr id="5" name="直線コネクタ 18"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="304800" y="424543"/>
-          <a:ext cx="3075214" cy="5443"/>
+        <a:xfrm>
+          <a:off x="312420" y="414321"/>
+          <a:ext cx="3068148" cy="2196"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -744,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:F4"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>

--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_E1.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_E1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24930" windowHeight="4935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22575" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,8 +84,16 @@
       <color theme="1"/>
       <name val="IPA明朝"/>
     </font>
+    <font>
+      <u val="singleAccounting"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="IPA明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,6 +103,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor auto="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,13 +300,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -426,16 +440,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12915</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>89858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>769189</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>93636</xdr:rowOff>
+      <xdr:rowOff>90407</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -443,9 +457,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="312420" y="414321"/>
-          <a:ext cx="3068148" cy="2196"/>
+        <a:xfrm flipV="1">
+          <a:off x="325623" y="413349"/>
+          <a:ext cx="3049462" cy="549"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -744,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:J3"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>

--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_E1.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_E1.xlsx
@@ -258,9 +258,6 @@
     <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -308,6 +305,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
@@ -781,53 +781,53 @@
   <sheetData>
     <row r="1" spans="1:13" customFormat="1" ht="12.75" customHeight="1"/>
     <row r="2" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>1234567890</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
       <c r="K2" s="1"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
       <c r="K3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="11" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="1"/>
       <c r="M4" s="1"/>
     </row>
@@ -859,7 +859,7 @@
     </row>
     <row r="8" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
       <c r="B8" s="6"/>
-      <c r="C8" s="8"/>
+      <c r="C8" s="24"/>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" customFormat="1" ht="12.75" customHeight="1">

--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_E1.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/QPP021_E1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22575" windowHeight="7185"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="23115" windowHeight="4710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,11 +45,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -78,11 +78,15 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="IPA明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="IPA明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
     <font>
       <u val="singleAccounting"/>
@@ -91,6 +95,20 @@
       <name val="IPA明朝"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -258,6 +276,9 @@
     <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -305,9 +326,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -315,8 +333,36 @@
     <cellStyle name="桁区切り 2" xfId="2"/>
     <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -391,55 +437,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1026309</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>115391</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線コネクタ 17"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3743325" y="495300"/>
-          <a:ext cx="3131334" cy="1091"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="34925" cmpd="dbl">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>12915</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -470,6 +467,104 @@
               <a:lumMod val="50000"/>
               <a:lumOff val="50000"/>
             </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>477710</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>232378</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線コネクタ 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4047387" y="424962"/>
+          <a:ext cx="1952745" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>477620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142323</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>232746</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142323</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4047297" y="464708"/>
+          <a:ext cx="1953203" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -536,7 +631,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -571,7 +666,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -748,7 +843,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -758,76 +853,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="11" width="9.625" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" customFormat="1" ht="12.75" customHeight="1"/>
     <row r="2" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B2" s="12">
+      <c r="B2" s="13">
         <v>1234567890</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
       <c r="K2" s="1"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
       <c r="K3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="10" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
       <c r="K4" s="1"/>
       <c r="M4" s="1"/>
     </row>
@@ -859,7 +946,7 @@
     </row>
     <row r="8" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
       <c r="B8" s="6"/>
-      <c r="C8" s="24"/>
+      <c r="C8" s="8"/>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" customFormat="1" ht="12.75" customHeight="1">
@@ -1218,6 +1305,7 @@
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="B3:F3"/>
   </mergeCells>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
